--- a/Data_file/Chart_Of_Account.xlsx
+++ b/Data_file/Chart_Of_Account.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="333">
   <si>
     <t>currency_id</t>
   </si>
@@ -1007,33 +1015,23 @@
   </si>
   <si>
     <t xml:space="preserve">สินค้าขาดบัญชี                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายในการซ่อมบำรุงเครื่องจักร</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1078,55 +1076,117 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1252,7 +1312,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1261,7 +1321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1270,7 +1330,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1344,7 +1404,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1352,7 +1412,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1370,7 +1430,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1459,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1509,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1534,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1559,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1584,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1609,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,9 +1672,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1629,7 +1695,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1637,7 +1703,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1655,7 +1721,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1746,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1771,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,7 +1796,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1821,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1780,7 +1846,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1805,7 +1871,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1830,7 +1896,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1855,7 +1921,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1880,7 +1946,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1893,9 +1959,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1909,7 +1981,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1927,7 +1999,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1956,7 +2028,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1981,7 +2053,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2006,7 +2078,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2031,7 +2103,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2056,7 +2128,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2081,7 +2153,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2106,7 +2178,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2131,7 +2203,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2156,7 +2228,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2169,5811 +2241,5840 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="30.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="3">
+    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="b" s="4">
+      <c r="C2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="3">
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="b" s="4">
+      <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="3">
+    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="b" s="4">
+      <c r="C4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>111</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="3">
+    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="b" s="4">
+      <c r="C5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="5">
         <v>111000</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
+    <row r="6" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="b" s="4">
+      <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>112000</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="3">
+    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="b" s="4">
+      <c r="C7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="5">
         <v>113</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s" s="3">
+    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="b" s="4">
+      <c r="C8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>113001</v>
       </c>
-      <c r="E8" t="s" s="3">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="b" s="4">
+      <c r="C9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="5">
         <v>113002</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s" s="3">
+    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="b" s="4">
+      <c r="C10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="5">
         <v>11400</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="b" s="4">
+      <c r="C11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="5">
         <v>114100</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="18.5" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="3">
+    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="b" s="4">
+      <c r="C12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>114200</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="18.5" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="b" s="4">
+      <c r="C13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="5">
         <v>114201</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="18.5" customHeight="1">
-      <c r="A14" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s" s="3">
+    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="b" s="4">
+      <c r="C14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="5">
         <v>114300</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="18.5" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="b" s="4">
+      <c r="C15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>11500</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="18.5" customHeight="1">
-      <c r="A16" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s" s="3">
+    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="b" s="4">
+      <c r="C16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="5">
         <v>115100</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="18.5" customHeight="1">
-      <c r="A17" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s" s="3">
+    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="b" s="4">
+      <c r="C17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="5">
         <v>115200</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="18.5" customHeight="1">
-      <c r="A18" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s" s="3">
+    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="b" s="4">
+      <c r="C18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="5">
         <v>115300</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="18.5" customHeight="1">
-      <c r="A19" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s" s="3">
+    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="b" s="4">
+      <c r="C19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="5">
         <v>115400</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s" s="3">
+    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="b" s="4">
+      <c r="C20" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="5">
         <v>115500</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" ht="18.5" customHeight="1">
-      <c r="A21" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s" s="3">
+    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="b" s="4">
+      <c r="C21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>115600</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="18.5" customHeight="1">
-      <c r="A22" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s" s="3">
+    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="b" s="4">
+      <c r="C22" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="5">
         <v>115700</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="18.5" customHeight="1">
-      <c r="A23" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s" s="3">
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="b" s="4">
+      <c r="C23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="5">
         <v>116</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" ht="18.5" customHeight="1">
-      <c r="A24" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s" s="3">
+    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="b" s="4">
+      <c r="C24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="5">
         <v>116100</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" ht="18.5" customHeight="1">
-      <c r="A25" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s" s="3">
+    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="b" s="4">
+      <c r="C25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="5">
         <v>116101</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" ht="18.5" customHeight="1">
-      <c r="A26" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s" s="3">
+    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="b" s="4">
+      <c r="C26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="5">
         <v>116102</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" ht="18.5" customHeight="1">
-      <c r="A27" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s" s="3">
+    <row r="27" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="b" s="4">
+      <c r="C27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="5">
         <v>116103</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="18.5" customHeight="1">
-      <c r="A28" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s" s="3">
+    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="b" s="4">
+      <c r="C28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="5">
         <v>116104</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" ht="18.5" customHeight="1">
-      <c r="A29" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s" s="3">
+    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="b" s="4">
+      <c r="C29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="5">
         <v>116105</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="18.5" customHeight="1">
-      <c r="A30" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s" s="3">
+    <row r="30" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="b" s="4">
+      <c r="C30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="5">
         <v>116106</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" ht="18.5" customHeight="1">
-      <c r="A31" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s" s="3">
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="b" s="4">
+      <c r="C31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="5">
         <v>116107</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" ht="18.5" customHeight="1">
-      <c r="A32" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s" s="3">
+    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="b" s="4">
+      <c r="C32" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="5">
         <v>116108</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="18.5" customHeight="1">
-      <c r="A33" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s" s="3">
+    <row r="33" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="b" s="4">
+      <c r="C33" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="5">
         <v>116200</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="18.5" customHeight="1">
-      <c r="A34" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s" s="3">
+    <row r="34" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="b" s="4">
+      <c r="C34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="5">
         <v>116201</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" ht="18.5" customHeight="1">
-      <c r="A35" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s" s="3">
+    <row r="35" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="b" s="4">
+      <c r="C35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="5">
         <v>116202</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" ht="18.5" customHeight="1">
-      <c r="A36" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s" s="3">
+    <row r="36" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="b" s="4">
+      <c r="C36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="5">
         <v>116203</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" ht="18.5" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s" s="3">
+    <row r="37" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C37" t="b" s="4">
+      <c r="C37" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="5">
         <v>116300</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" ht="18.5" customHeight="1">
-      <c r="A38" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s" s="3">
+    <row r="38" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="b" s="4">
+      <c r="C38" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="5">
         <v>116400</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" ht="18.5" customHeight="1">
-      <c r="A39" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s" s="3">
+    <row r="39" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="b" s="4">
+      <c r="C39" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="5">
         <v>116500</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="18.5" customHeight="1">
-      <c r="A40" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s" s="3">
+    <row r="40" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C40" t="b" s="4">
+      <c r="C40" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="5">
         <v>116600</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" ht="18.5" customHeight="1">
-      <c r="A41" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s" s="3">
+    <row r="41" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="b" s="4">
+      <c r="C41" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="5">
         <v>116700</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="18.5" customHeight="1">
-      <c r="A42" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s" s="3">
+    <row r="42" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="b" s="4">
+      <c r="C42" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="5">
         <v>116800</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" ht="18.5" customHeight="1">
-      <c r="A43" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s" s="3">
+    <row r="43" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C43" t="b" s="4">
+      <c r="C43" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="5">
         <v>117000</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" ht="18.5" customHeight="1">
-      <c r="A44" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s" s="3">
+    <row r="44" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="b" s="4">
+      <c r="C44" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="5">
         <v>117101</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" ht="18.5" customHeight="1">
-      <c r="A45" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s" s="3">
+    <row r="45" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C45" t="b" s="4">
+      <c r="C45" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="5">
         <v>117102</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" ht="18.5" customHeight="1">
-      <c r="A46" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s" s="3">
+    <row r="46" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C46" t="b" s="4">
+      <c r="C46" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="5">
         <v>117103</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" ht="18.5" customHeight="1">
-      <c r="A47" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s" s="3">
+    <row r="47" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C47" t="b" s="4">
+      <c r="C47" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="5">
         <v>117104</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" ht="18.5" customHeight="1">
-      <c r="A48" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s" s="3">
+    <row r="48" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="b" s="4">
+      <c r="C48" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="5">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" ht="18.5" customHeight="1">
-      <c r="A49" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s" s="3">
+    <row r="49" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C49" t="b" s="4">
+      <c r="C49" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="5">
         <v>120000</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" ht="18.5" customHeight="1">
-      <c r="A50" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s" s="3">
+    <row r="50" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" t="b" s="4">
+      <c r="C50" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="5">
         <v>121000</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" ht="18.5" customHeight="1">
-      <c r="A51" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s" s="3">
+    <row r="51" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C51" t="b" s="4">
+      <c r="C51" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="5">
         <v>121100</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" ht="18.5" customHeight="1">
-      <c r="A52" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s" s="3">
+    <row r="52" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="b" s="4">
+      <c r="C52" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="5">
         <v>121101</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" ht="18.5" customHeight="1">
-      <c r="A53" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s" s="3">
+    <row r="53" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="b" s="4">
+      <c r="C53" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="5">
         <v>121102</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="18.5" customHeight="1">
-      <c r="A54" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s" s="3">
+    <row r="54" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C54" t="b" s="4">
+      <c r="C54" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="5">
         <v>122000</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" ht="18.5" customHeight="1">
-      <c r="A55" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s" s="3">
+    <row r="55" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C55" t="b" s="4">
+      <c r="C55" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="5">
         <v>122101</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" ht="18.5" customHeight="1">
-      <c r="A56" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s" s="3">
+    <row r="56" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C56" t="b" s="4">
+      <c r="C56" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="5">
         <v>122102</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" ht="18.5" customHeight="1">
-      <c r="A57" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s" s="3">
+    <row r="57" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="b" s="4">
+      <c r="C57" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="5">
         <v>122103</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" ht="34.5" customHeight="1">
-      <c r="A58" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s" s="3">
+    <row r="58" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="b" s="4">
+      <c r="C58" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="5">
         <v>122104</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" ht="18.5" customHeight="1">
-      <c r="A59" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s" s="3">
+    <row r="59" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="b" s="4">
+      <c r="C59" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="5">
         <v>122105</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" ht="18.5" customHeight="1">
-      <c r="A60" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s" s="3">
+    <row r="60" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="b" s="4">
+      <c r="C60" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="5">
         <v>122106</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" ht="18.5" customHeight="1">
-      <c r="A61" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s" s="3">
+    <row r="61" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C61" t="b" s="4">
+      <c r="C61" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="5">
         <v>122107</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" ht="18.5" customHeight="1">
-      <c r="A62" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s" s="3">
+    <row r="62" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C62" t="b" s="4">
+      <c r="C62" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="5">
         <v>122108</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" ht="18.5" customHeight="1">
-      <c r="A63" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s" s="3">
+    <row r="63" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="b" s="4">
+      <c r="C63" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="5">
         <v>122109</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" ht="18.5" customHeight="1">
-      <c r="A64" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s" s="3">
+    <row r="64" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C64" t="b" s="4">
+      <c r="C64" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="5">
         <v>122110</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" ht="18.5" customHeight="1">
-      <c r="A65" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s" s="3">
+    <row r="65" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="b" s="4">
+      <c r="C65" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="5">
         <v>122111</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" ht="18.5" customHeight="1">
-      <c r="A66" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s" s="3">
+    <row r="66" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C66" t="b" s="4">
+      <c r="C66" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="5">
         <v>122112</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" ht="18.25" customHeight="1">
-      <c r="A67" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s" s="3">
+    <row r="67" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="b" s="4">
+      <c r="C67" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="5">
         <v>122113</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" ht="18.5" customHeight="1">
-      <c r="A68" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s" s="3">
+    <row r="68" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="b" s="4">
+      <c r="C68" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="5">
         <v>122114</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" ht="18.5" customHeight="1">
-      <c r="A69" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s" s="3">
+    <row r="69" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C69" t="b" s="4">
+      <c r="C69" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="5">
         <v>122115</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" ht="18.5" customHeight="1">
-      <c r="A70" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s" s="3">
+    <row r="70" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C70" t="b" s="4">
+      <c r="C70" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="5">
         <v>122116</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" ht="18.5" customHeight="1">
-      <c r="A71" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s" s="3">
+    <row r="71" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C71" t="b" s="4">
+      <c r="C71" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="5">
         <v>122117</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" ht="18.5" customHeight="1">
-      <c r="A72" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s" s="3">
+    <row r="72" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C72" t="b" s="4">
+      <c r="C72" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="5">
         <v>122118</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" ht="18.5" customHeight="1">
-      <c r="A73" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s" s="3">
+    <row r="73" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C73" t="b" s="4">
+      <c r="C73" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="5">
         <v>122119</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" ht="18.5" customHeight="1">
-      <c r="A74" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B74" t="s" s="3">
+    <row r="74" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C74" t="b" s="4">
+      <c r="C74" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="5">
         <v>12300</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" ht="18.5" customHeight="1">
-      <c r="A75" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s" s="3">
+    <row r="75" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C75" t="b" s="4">
+      <c r="C75" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="5">
         <v>123101</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" ht="18.5" customHeight="1">
-      <c r="A76" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s" s="3">
+    <row r="76" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C76" t="b" s="4">
+      <c r="C76" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="5">
         <v>123102</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" ht="18.5" customHeight="1">
-      <c r="A77" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s" s="3">
+    <row r="77" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C77" t="b" s="4">
+      <c r="C77" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="5">
         <v>123103</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" ht="18.5" customHeight="1">
-      <c r="A78" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s" s="3">
+    <row r="78" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C78" t="b" s="4">
+      <c r="C78" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="5">
         <v>123104</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" ht="36.4" customHeight="1">
-      <c r="A79" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s" s="3">
+    <row r="79" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="b" s="4">
+      <c r="C79" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="5">
         <v>123105</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" ht="36.4" customHeight="1">
-      <c r="A80" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s" s="3">
+    <row r="80" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C80" t="b" s="4">
+      <c r="C80" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="5">
         <v>123106</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" ht="18.5" customHeight="1">
-      <c r="A81" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s" s="3">
+    <row r="81" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="b" s="4">
+      <c r="C81" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="5">
         <v>123107</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" ht="18.25" customHeight="1">
-      <c r="A82" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s" s="3">
+    <row r="82" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C82" t="b" s="4">
+      <c r="C82" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="5">
         <v>123108</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" ht="18.5" customHeight="1">
-      <c r="A83" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s" s="3">
+    <row r="83" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C83" t="b" s="4">
+      <c r="C83" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="5">
         <v>123109</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" ht="18.5" customHeight="1">
-      <c r="A84" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s" s="3">
+    <row r="84" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C84" t="b" s="4">
+      <c r="C84" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="5">
         <v>123110</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" ht="18.5" customHeight="1">
-      <c r="A85" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s" s="3">
+    <row r="85" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C85" t="b" s="4">
+      <c r="C85" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="5">
         <v>123111</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" ht="36.4" customHeight="1">
-      <c r="A86" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s" s="3">
+    <row r="86" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C86" t="b" s="4">
+      <c r="C86" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="5">
         <v>123112</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" ht="18.5" customHeight="1">
-      <c r="A87" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s" s="3">
+    <row r="87" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C87" t="b" s="4">
+      <c r="C87" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="5">
         <v>130000</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" ht="18.5" customHeight="1">
-      <c r="A88" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s" s="3">
+    <row r="88" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C88" t="b" s="4">
+      <c r="C88" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="5">
         <v>131000</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="89" ht="18.5" customHeight="1">
-      <c r="A89" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s" s="3">
+    <row r="89" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C89" t="b" s="4">
+      <c r="C89" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="5">
         <v>131100</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="90" ht="18.5" customHeight="1">
-      <c r="A90" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s" s="3">
+    <row r="90" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C90" t="b" s="4">
+      <c r="C90" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="5">
         <v>131200</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" ht="18.5" customHeight="1">
-      <c r="A91" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s" s="3">
+    <row r="91" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C91" t="b" s="4">
+      <c r="C91" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="5">
         <v>131300</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" ht="18.5" customHeight="1">
-      <c r="A92" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s" s="3">
+    <row r="92" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C92" t="b" s="4">
+      <c r="C92" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="5">
         <v>140000</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" ht="18.5" customHeight="1">
-      <c r="A93" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s" s="3">
+    <row r="93" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C93" t="b" s="4">
+      <c r="C93" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="5">
         <v>141000</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" ht="18.5" customHeight="1">
-      <c r="A94" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s" s="3">
+    <row r="94" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C94" t="b" s="4">
+      <c r="C94" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="5">
         <v>142000</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" ht="18.5" customHeight="1">
-      <c r="A95" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s" s="3">
+    <row r="95" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C95" t="b" s="4">
+      <c r="C95" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="5">
         <v>143000</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="96" ht="18.5" customHeight="1">
-      <c r="A96" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s" s="3">
+    <row r="96" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C96" t="b" s="4">
+      <c r="C96" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="5">
         <v>2</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" ht="18.5" customHeight="1">
-      <c r="A97" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s" s="3">
+    <row r="97" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C97" t="b" s="4">
+      <c r="C97" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="5">
         <v>210000</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" ht="18.5" customHeight="1">
-      <c r="A98" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s" s="3">
+    <row r="98" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C98" t="b" s="4">
+      <c r="C98" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="5">
         <v>211000</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" ht="18.5" customHeight="1">
-      <c r="A99" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B99" t="s" s="3">
+    <row r="99" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C99" t="b" s="4">
+      <c r="C99" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="5">
         <v>211100</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" ht="18.5" customHeight="1">
-      <c r="A100" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s" s="3">
+    <row r="100" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C100" t="b" s="4">
+      <c r="C100" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="5">
         <v>211200</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" ht="18.5" customHeight="1">
-      <c r="A101" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s" s="3">
+    <row r="101" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C101" t="b" s="4">
+      <c r="C101" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="5">
         <v>211300</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" ht="18.5" customHeight="1">
-      <c r="A102" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s" s="3">
+    <row r="102" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C102" t="b" s="4">
+      <c r="C102" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D102" s="5">
         <v>212000</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" ht="18.5" customHeight="1">
-      <c r="A103" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s" s="3">
+    <row r="103" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C103" t="b" s="4">
+      <c r="C103" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D103" s="5">
         <v>212100</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" ht="18.5" customHeight="1">
-      <c r="A104" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s" s="3">
+    <row r="104" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C104" t="b" s="4">
+      <c r="C104" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D104" s="5">
         <v>212200</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" ht="18.5" customHeight="1">
-      <c r="A105" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s" s="3">
+    <row r="105" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C105" t="b" s="4">
+      <c r="C105" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D105" s="5">
         <v>213000</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" ht="18.5" customHeight="1">
-      <c r="A106" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s" s="3">
+    <row r="106" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C106" t="b" s="4">
+      <c r="C106" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D106" s="5">
         <v>213100</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" ht="18.5" customHeight="1">
-      <c r="A107" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B107" t="s" s="3">
+    <row r="107" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C107" t="b" s="4">
+      <c r="C107" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D107" s="5">
         <v>213101</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="108" ht="18.5" customHeight="1">
-      <c r="A108" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s" s="3">
+    <row r="108" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C108" t="b" s="4">
+      <c r="C108" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D108" s="5">
         <v>213102</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="109" ht="18.5" customHeight="1">
-      <c r="A109" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B109" t="s" s="3">
+    <row r="109" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C109" t="b" s="4">
+      <c r="C109" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D109" s="5">
         <v>213103</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" ht="18.5" customHeight="1">
-      <c r="A110" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B110" t="s" s="3">
+    <row r="110" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C110" t="b" s="4">
+      <c r="C110" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D110" s="5">
         <v>213104</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111" ht="18.5" customHeight="1">
-      <c r="A111" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B111" t="s" s="3">
+    <row r="111" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C111" t="b" s="4">
+      <c r="C111" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D111" s="5">
         <v>213105</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" ht="18.5" customHeight="1">
-      <c r="A112" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B112" t="s" s="3">
+    <row r="112" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C112" t="b" s="4">
+      <c r="C112" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D112" s="5">
         <v>213106</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" ht="18.5" customHeight="1">
-      <c r="A113" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B113" t="s" s="3">
+    <row r="113" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C113" t="b" s="4">
+      <c r="C113" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D113" s="5">
         <v>214100</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" ht="18.5" customHeight="1">
-      <c r="A114" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s" s="3">
+    <row r="114" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C114" t="b" s="4">
+      <c r="C114" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D114" s="5">
         <v>214101</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="115" ht="18.5" customHeight="1">
-      <c r="A115" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B115" t="s" s="3">
+    <row r="115" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C115" t="b" s="4">
+      <c r="C115" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D115" s="5">
         <v>214102</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116" ht="18.5" customHeight="1">
-      <c r="A116" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B116" t="s" s="3">
+    <row r="116" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C116" t="b" s="4">
+      <c r="C116" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D116" s="5">
         <v>214103</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117" ht="18.5" customHeight="1">
-      <c r="A117" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B117" t="s" s="3">
+    <row r="117" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C117" t="b" s="4">
+      <c r="C117" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D117" s="5">
         <v>214104</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" ht="18.5" customHeight="1">
-      <c r="A118" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B118" t="s" s="3">
+    <row r="118" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C118" t="b" s="4">
+      <c r="C118" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D118" s="5">
         <v>214105</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" ht="18.5" customHeight="1">
-      <c r="A119" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B119" t="s" s="3">
+    <row r="119" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C119" t="b" s="4">
+      <c r="C119" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D119" s="5">
         <v>214106</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="120" ht="18.5" customHeight="1">
-      <c r="A120" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s" s="3">
+    <row r="120" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C120" t="b" s="4">
+      <c r="C120" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D120" s="5">
         <v>214107</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" ht="18.5" customHeight="1">
-      <c r="A121" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B121" t="s" s="3">
+    <row r="121" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C121" t="b" s="4">
+      <c r="C121" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D121" s="5">
         <v>215000</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" ht="18.5" customHeight="1">
-      <c r="A122" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B122" t="s" s="3">
+    <row r="122" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C122" t="b" s="4">
+      <c r="C122" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D122" s="5">
         <v>215100</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" ht="18.5" customHeight="1">
-      <c r="A123" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s" s="3">
+    <row r="123" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C123" t="b" s="4">
+      <c r="C123" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D123" s="5">
         <v>215200</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" ht="18.5" customHeight="1">
-      <c r="A124" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B124" t="s" s="3">
+    <row r="124" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C124" t="b" s="4">
+      <c r="C124" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D124" s="5">
         <v>215300</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="125" ht="18.5" customHeight="1">
-      <c r="A125" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B125" t="s" s="3">
+    <row r="125" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C125" t="b" s="4">
+      <c r="C125" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D125" s="5">
         <v>215400</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" ht="18.5" customHeight="1">
-      <c r="A126" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B126" t="s" s="3">
+    <row r="126" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C126" t="b" s="4">
+      <c r="C126" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D126" s="5">
         <v>215500</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="127" ht="18.5" customHeight="1">
-      <c r="A127" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s" s="3">
+    <row r="127" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C127" t="b" s="4">
+      <c r="C127" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D127" s="5">
         <v>215600</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" ht="18.5" customHeight="1">
-      <c r="A128" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B128" t="s" s="3">
+    <row r="128" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C128" t="b" s="4">
+      <c r="C128" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D128" s="5">
         <v>216000</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="129" ht="18.5" customHeight="1">
-      <c r="A129" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B129" t="s" s="3">
+    <row r="129" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C129" t="b" s="4">
+      <c r="C129" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D129" s="5">
         <v>216100</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="130" ht="18.5" customHeight="1">
-      <c r="A130" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B130" t="s" s="3">
+    <row r="130" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C130" t="b" s="4">
+      <c r="C130" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D130" s="5">
         <v>220000</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" ht="18.5" customHeight="1">
-      <c r="A131" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B131" t="s" s="3">
+    <row r="131" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C131" t="b" s="4">
+      <c r="C131" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D131" s="5">
         <v>221000</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="132" ht="18.5" customHeight="1">
-      <c r="A132" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B132" t="s" s="3">
+    <row r="132" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C132" t="b" s="4">
+      <c r="C132" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D132" s="5">
         <v>222000</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" ht="18.5" customHeight="1">
-      <c r="A133" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B133" t="s" s="3">
+    <row r="133" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C133" t="b" s="4">
+      <c r="C133" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D133" s="5">
         <v>223000</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="134" ht="18.5" customHeight="1">
-      <c r="A134" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B134" t="s" s="3">
+    <row r="134" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C134" t="b" s="4">
+      <c r="C134" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D134" s="5">
         <v>224000</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" ht="18.5" customHeight="1">
-      <c r="A135" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B135" t="s" s="3">
+    <row r="135" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C135" t="b" s="4">
+      <c r="C135" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D135" s="5">
         <v>225000</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" ht="18.5" customHeight="1">
-      <c r="A136" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B136" t="s" s="3">
+    <row r="136" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C136" t="b" s="4">
+      <c r="C136" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D136" s="5">
         <v>3</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" ht="18.5" customHeight="1">
-      <c r="A137" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B137" t="s" s="3">
+    <row r="137" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C137" t="b" s="4">
+      <c r="C137" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D137" s="5">
         <v>311000</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" ht="18.5" customHeight="1">
-      <c r="A138" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s" s="3">
+    <row r="138" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C138" t="b" s="4">
+      <c r="C138" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D138" s="5">
         <v>311001</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" ht="18.5" customHeight="1">
-      <c r="A139" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B139" t="s" s="3">
+    <row r="139" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C139" t="b" s="4">
+      <c r="C139" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D139" s="5">
         <v>312100</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" ht="18.5" customHeight="1">
-      <c r="A140" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B140" t="s" s="3">
+    <row r="140" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C140" t="b" s="4">
+      <c r="C140" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D140" s="5">
         <v>312101</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" ht="18.5" customHeight="1">
-      <c r="A141" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B141" t="s" s="3">
+    <row r="141" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C141" t="b" s="4">
+      <c r="C141" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D141" s="5">
         <v>312102</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" ht="18.5" customHeight="1">
-      <c r="A142" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B142" t="s" s="3">
+    <row r="142" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C142" t="b" s="4">
+      <c r="C142" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D142" s="5">
         <v>312200</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="143" ht="18.5" customHeight="1">
-      <c r="A143" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B143" t="s" s="3">
+    <row r="143" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C143" t="b" s="4">
+      <c r="C143" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D143" s="5">
         <v>4</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" ht="18.5" customHeight="1">
-      <c r="A144" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B144" t="s" s="3">
+    <row r="144" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C144" t="b" s="4">
+      <c r="C144" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D144" s="5">
         <v>410000</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="145" ht="18.5" customHeight="1">
-      <c r="A145" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B145" t="s" s="3">
+    <row r="145" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C145" t="b" s="4">
+      <c r="C145" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D145" s="5">
         <v>411000</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" ht="18.5" customHeight="1">
-      <c r="A146" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B146" t="s" s="3">
+    <row r="146" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C146" t="b" s="4">
+      <c r="C146" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D146" s="5">
         <v>420000</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" ht="18.5" customHeight="1">
-      <c r="A147" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B147" t="s" s="3">
+    <row r="147" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C147" t="b" s="4">
+      <c r="C147" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D147" s="5">
         <v>421000</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" ht="18.5" customHeight="1">
-      <c r="A148" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B148" t="s" s="3">
+    <row r="148" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C148" t="b" s="4">
+      <c r="C148" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D148" s="5">
         <v>422000</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" ht="18.5" customHeight="1">
-      <c r="A149" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B149" t="s" s="3">
+    <row r="149" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C149" t="b" s="4">
+      <c r="C149" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D149" s="5">
         <v>423000</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" ht="18.5" customHeight="1">
-      <c r="A150" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B150" t="s" s="3">
+    <row r="150" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C150" t="b" s="4">
+      <c r="C150" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D150" s="5">
         <v>424000</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="151" ht="18.5" customHeight="1">
-      <c r="A151" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B151" t="s" s="3">
+    <row r="151" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C151" t="b" s="4">
+      <c r="C151" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D151" s="5">
         <v>425000</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" ht="18.5" customHeight="1">
-      <c r="A152" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B152" t="s" s="3">
+    <row r="152" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C152" t="b" s="4">
+      <c r="C152" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D152" s="5">
         <v>426000</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" ht="18.5" customHeight="1">
-      <c r="A153" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B153" t="s" s="3">
+    <row r="153" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C153" t="b" s="4">
+      <c r="C153" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D153" s="5">
         <v>427000</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" ht="18.5" customHeight="1">
-      <c r="A154" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B154" t="s" s="3">
+    <row r="154" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C154" t="b" s="4">
+      <c r="C154" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D154" s="5">
         <v>428000</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" ht="18.5" customHeight="1">
-      <c r="A155" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B155" t="s" s="3">
+    <row r="155" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C155" t="b" s="4">
+      <c r="C155" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D155" s="5">
         <v>5</v>
       </c>
-      <c r="E155" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" ht="18.5" customHeight="1">
-      <c r="A156" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B156" t="s" s="3">
+      <c r="E155" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C156" t="b" s="4">
+      <c r="C156" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D156" s="5">
         <v>510000</v>
       </c>
-      <c r="E156" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" ht="18.5" customHeight="1">
-      <c r="A157" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B157" t="s" s="3">
+      <c r="E156" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C157" t="b" s="4">
+      <c r="C157" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D157" s="5">
         <v>511000</v>
       </c>
-      <c r="E157" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" ht="18.5" customHeight="1">
-      <c r="A158" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B158" t="s" s="3">
+      <c r="E157" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C158" t="b" s="4">
+      <c r="C158" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D158" s="5">
         <v>511100</v>
       </c>
-      <c r="E158" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" ht="18.5" customHeight="1">
-      <c r="A159" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B159" t="s" s="3">
+      <c r="E158" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C159" t="b" s="4">
+      <c r="C159" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D159" s="5">
         <v>512000</v>
       </c>
-      <c r="E159" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" ht="18.5" customHeight="1">
-      <c r="A160" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B160" t="s" s="3">
+      <c r="E159" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C160" t="b" s="4">
+      <c r="C160" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D160" s="5">
         <v>513000</v>
       </c>
-      <c r="E160" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" ht="18.5" customHeight="1">
-      <c r="A161" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B161" t="s" s="3">
+      <c r="E160" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C161" t="b" s="4">
+      <c r="C161" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D161" s="5">
         <v>514000</v>
       </c>
-      <c r="E161" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" ht="18.5" customHeight="1">
-      <c r="A162" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B162" t="s" s="3">
+      <c r="E161" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C162" t="b" s="4">
+      <c r="C162" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D162" s="5">
         <v>514001</v>
       </c>
-      <c r="E162" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" ht="18.5" customHeight="1">
-      <c r="A163" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B163" t="s" s="3">
+      <c r="E162" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C163" t="b" s="4">
+      <c r="C163" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D163" s="5">
         <v>514002</v>
       </c>
-      <c r="E163" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" ht="18.5" customHeight="1">
-      <c r="A164" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B164" t="s" s="3">
+      <c r="E163" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C164" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" s="5">
+        <v>514003</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C164" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="C165" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="5">
         <v>515000</v>
       </c>
-      <c r="E164" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="165" ht="18.5" customHeight="1">
-      <c r="A165" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B165" t="s" s="3">
+      <c r="E165" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C165" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D165" s="5">
+      <c r="C166" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="5">
         <v>516000</v>
       </c>
-      <c r="E165" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" ht="18.5" customHeight="1">
-      <c r="A166" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B166" t="s" s="3">
+      <c r="E166" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C166" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D166" s="5">
+      <c r="C167" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="5">
         <v>516100</v>
       </c>
-      <c r="E166" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="167" ht="18.5" customHeight="1">
-      <c r="A167" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B167" t="s" s="3">
+      <c r="E167" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C167" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D167" s="5">
+      <c r="C168" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="5">
         <v>516200</v>
       </c>
-      <c r="E167" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="168" ht="18.5" customHeight="1">
-      <c r="A168" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B168" t="s" s="3">
+      <c r="E168" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C168" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D168" s="5">
+      <c r="C169" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="5">
         <v>516300</v>
       </c>
-      <c r="E168" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" ht="18.5" customHeight="1">
-      <c r="A169" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B169" t="s" s="3">
+      <c r="E169" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C169" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D169" s="5">
+      <c r="C170" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="5">
         <v>516400</v>
       </c>
-      <c r="E169" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="170" ht="18.5" customHeight="1">
-      <c r="A170" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B170" t="s" s="3">
+      <c r="E170" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C170" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D170" s="5">
+      <c r="C171" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" s="5">
         <v>516500</v>
       </c>
-      <c r="E170" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="171" ht="18.5" customHeight="1">
-      <c r="A171" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B171" t="s" s="3">
+      <c r="E171" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C171" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D171" s="5">
+      <c r="C172" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="5">
         <v>516600</v>
       </c>
-      <c r="E171" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="172" ht="18.5" customHeight="1">
-      <c r="A172" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B172" t="s" s="3">
+      <c r="E172" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C172" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D172" s="5">
+      <c r="C173" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" s="5">
         <v>517000</v>
       </c>
-      <c r="E172" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="173" ht="18.5" customHeight="1">
-      <c r="A173" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B173" t="s" s="3">
+      <c r="E173" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C173" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D173" s="5">
+      <c r="C174" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" s="5">
         <v>517100</v>
       </c>
-      <c r="E173" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="174" ht="18.5" customHeight="1">
-      <c r="A174" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B174" t="s" s="3">
+      <c r="E174" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C174" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D174" s="5">
+      <c r="C175" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175" s="5">
         <v>517200</v>
       </c>
-      <c r="E174" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" ht="18.5" customHeight="1">
-      <c r="A175" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B175" t="s" s="3">
+      <c r="E175" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C175" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D175" s="5">
+      <c r="C176" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" s="5">
         <v>517300</v>
       </c>
-      <c r="E175" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="176" ht="18.5" customHeight="1">
-      <c r="A176" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B176" t="s" s="3">
+      <c r="E176" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C176" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D176" s="5">
+      <c r="C177" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="5">
         <v>518000</v>
       </c>
-      <c r="E176" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="177" ht="18.5" customHeight="1">
-      <c r="A177" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B177" t="s" s="3">
+      <c r="E177" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C177" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D177" s="5">
+      <c r="C178" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" s="5">
         <v>518100</v>
       </c>
-      <c r="E177" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="178" ht="18.5" customHeight="1">
-      <c r="A178" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B178" t="s" s="3">
+      <c r="E178" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C178" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D178" s="5">
+      <c r="C179" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" s="5">
         <v>518200</v>
       </c>
-      <c r="E178" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="179" ht="18.5" customHeight="1">
-      <c r="A179" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B179" t="s" s="3">
+      <c r="E179" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C179" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D179" s="5">
+      <c r="C180" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" s="5">
         <v>518300</v>
       </c>
-      <c r="E179" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="180" ht="18.5" customHeight="1">
-      <c r="A180" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B180" t="s" s="3">
+      <c r="E180" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C180" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D180" s="5">
+      <c r="C181" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" s="5">
         <v>518400</v>
       </c>
-      <c r="E180" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="181" ht="18.5" customHeight="1">
-      <c r="A181" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B181" t="s" s="3">
+      <c r="E181" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C181" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D181" s="5">
+      <c r="C182" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" s="5">
         <v>518500</v>
       </c>
-      <c r="E181" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="182" ht="18.5" customHeight="1">
-      <c r="A182" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B182" t="s" s="3">
+      <c r="E182" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C182" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D182" s="5">
+      <c r="C183" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" s="5">
         <v>518600</v>
       </c>
-      <c r="E182" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="183" ht="18.5" customHeight="1">
-      <c r="A183" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B183" t="s" s="3">
+      <c r="E183" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C183" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D183" s="5">
+      <c r="C184" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" s="5">
         <v>519000</v>
       </c>
-      <c r="E183" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="184" ht="18.5" customHeight="1">
-      <c r="A184" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B184" t="s" s="3">
+      <c r="E184" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C184" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D184" s="5">
+      <c r="C185" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5">
         <v>519100</v>
       </c>
-      <c r="E184" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="185" ht="18.5" customHeight="1">
-      <c r="A185" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B185" t="s" s="3">
+      <c r="E185" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C185" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D185" s="5">
+      <c r="C186" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5">
         <v>519200</v>
       </c>
-      <c r="E185" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="186" ht="18.5" customHeight="1">
-      <c r="A186" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B186" t="s" s="3">
+      <c r="E186" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C186" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D186" s="5">
+      <c r="C187" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" s="5">
         <v>519300</v>
       </c>
-      <c r="E186" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="187" ht="18.5" customHeight="1">
-      <c r="A187" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B187" t="s" s="3">
+      <c r="E187" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C187" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D187" s="5">
+      <c r="C188" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" s="5">
         <v>519400</v>
       </c>
-      <c r="E187" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="188" ht="18.5" customHeight="1">
-      <c r="A188" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B188" t="s" s="3">
+      <c r="E188" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C188" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D188" s="5">
+      <c r="C189" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" s="5">
         <v>520000</v>
       </c>
-      <c r="E188" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="189" ht="18.5" customHeight="1">
-      <c r="A189" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B189" t="s" s="3">
+      <c r="E189" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C189" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D189" s="5">
+      <c r="C190" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="5">
         <v>521000</v>
       </c>
-      <c r="E189" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="190" ht="18.5" customHeight="1">
-      <c r="A190" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B190" t="s" s="3">
+      <c r="E190" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C190" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D190" s="5">
+      <c r="C191" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" s="5">
         <v>521100</v>
       </c>
-      <c r="E190" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" ht="18.5" customHeight="1">
-      <c r="A191" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B191" t="s" s="3">
+      <c r="E191" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C191" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D191" s="5">
+      <c r="C192" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" s="5">
         <v>521200</v>
       </c>
-      <c r="E191" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="192" ht="18.5" customHeight="1">
-      <c r="A192" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B192" t="s" s="3">
+      <c r="E192" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C192" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D192" s="5">
+      <c r="C193" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" s="5">
         <v>521300</v>
       </c>
-      <c r="E192" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" ht="18.25" customHeight="1">
-      <c r="A193" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B193" t="s" s="3">
+      <c r="E193" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C193" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D193" s="5">
+      <c r="C194" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" s="5">
         <v>521400</v>
       </c>
-      <c r="E193" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="194" ht="18.5" customHeight="1">
-      <c r="A194" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B194" t="s" s="3">
+      <c r="E194" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C194" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D194" s="5">
+      <c r="C195" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" s="5">
         <v>521500</v>
       </c>
-      <c r="E194" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="195" ht="18.5" customHeight="1">
-      <c r="A195" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B195" t="s" s="3">
+      <c r="E195" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C195" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D195" s="5">
+      <c r="C196" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D196" s="5">
         <v>521600</v>
       </c>
-      <c r="E195" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="196" ht="18.5" customHeight="1">
-      <c r="A196" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B196" t="s" s="3">
+      <c r="E196" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C196" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D196" s="5">
+      <c r="C197" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" s="5">
         <v>521700</v>
       </c>
-      <c r="E196" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="197" ht="18.5" customHeight="1">
-      <c r="A197" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s" s="3">
+      <c r="E197" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C197" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D197" s="5">
+      <c r="C198" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" s="5">
         <v>521800</v>
       </c>
-      <c r="E197" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="198" ht="18.5" customHeight="1">
-      <c r="A198" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B198" t="s" s="3">
+      <c r="E198" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C198" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D198" s="5">
+      <c r="C199" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" s="5">
         <v>521900</v>
       </c>
-      <c r="E198" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="199" ht="18.5" customHeight="1">
-      <c r="A199" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B199" t="s" s="3">
+      <c r="E199" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C199" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D199" s="5">
+      <c r="C200" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
         <v>522000</v>
       </c>
-      <c r="E199" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="200" ht="18.5" customHeight="1">
-      <c r="A200" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B200" t="s" s="3">
+      <c r="E200" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C200" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D200" s="5">
+      <c r="C201" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" s="5">
         <v>522100</v>
       </c>
-      <c r="E200" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="201" ht="18.5" customHeight="1">
-      <c r="A201" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B201" t="s" s="3">
+      <c r="E201" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C201" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D201" s="5">
+      <c r="C202" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" s="5">
         <v>522110</v>
       </c>
-      <c r="E201" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="202" ht="18.5" customHeight="1">
-      <c r="A202" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B202" t="s" s="3">
+      <c r="E202" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C202" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D202" s="5">
+      <c r="C203" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" s="5">
         <v>522120</v>
       </c>
-      <c r="E202" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="203" ht="18.5" customHeight="1">
-      <c r="A203" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B203" t="s" s="3">
+      <c r="E203" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C203" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D203" s="5">
+      <c r="C204" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" s="5">
         <v>522130</v>
       </c>
-      <c r="E203" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="204" ht="18.5" customHeight="1">
-      <c r="A204" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B204" t="s" s="3">
+      <c r="E204" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C204" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D204" s="5">
+      <c r="C205" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" s="5">
         <v>522140</v>
       </c>
-      <c r="E204" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="205" ht="18.5" customHeight="1">
-      <c r="A205" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B205" t="s" s="3">
+      <c r="E205" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C205" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D205" s="5">
+      <c r="C206" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" s="5">
         <v>522150</v>
       </c>
-      <c r="E205" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="206" ht="18.5" customHeight="1">
-      <c r="A206" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B206" t="s" s="3">
+      <c r="E206" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C206" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D206" s="5">
+      <c r="C207" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" s="5">
         <v>522160</v>
       </c>
-      <c r="E206" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="207" ht="18.5" customHeight="1">
-      <c r="A207" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B207" t="s" s="3">
+      <c r="E207" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C207" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D207" s="5">
+      <c r="C208" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" s="5">
         <v>522200</v>
       </c>
-      <c r="E207" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="208" ht="18.5" customHeight="1">
-      <c r="A208" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B208" t="s" s="3">
+      <c r="E208" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C208" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D208" s="5">
+      <c r="C209" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" s="5">
         <v>522300</v>
       </c>
-      <c r="E208" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="209" ht="18.5" customHeight="1">
-      <c r="A209" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B209" t="s" s="3">
+      <c r="E209" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C209" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D209" s="5">
+      <c r="C210" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" s="5">
         <v>522400</v>
       </c>
-      <c r="E209" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="210" ht="18.5" customHeight="1">
-      <c r="A210" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B210" t="s" s="3">
+      <c r="E210" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C210" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D210" s="5">
+      <c r="C211" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" s="5">
         <v>522410</v>
       </c>
-      <c r="E210" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="211" ht="18.5" customHeight="1">
-      <c r="A211" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B211" t="s" s="3">
+      <c r="E211" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C211" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D211" s="5">
+      <c r="C212" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" s="5">
         <v>522420</v>
       </c>
-      <c r="E211" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="212" ht="34.5" customHeight="1">
-      <c r="A212" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B212" t="s" s="3">
+      <c r="E212" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C212" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D212" s="5">
+      <c r="C213" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" s="5">
         <v>522430</v>
       </c>
-      <c r="E212" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="213" ht="18.5" customHeight="1">
-      <c r="A213" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B213" t="s" s="3">
+      <c r="E213" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C213" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D213" s="5">
+      <c r="C214" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D214" s="5">
         <v>522440</v>
       </c>
-      <c r="E213" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="214" ht="18.5" customHeight="1">
-      <c r="A214" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B214" t="s" s="3">
+      <c r="E214" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C214" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D214" s="5">
+      <c r="C215" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" s="5">
         <v>522600</v>
       </c>
-      <c r="E214" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="215" ht="18.5" customHeight="1">
-      <c r="A215" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B215" t="s" s="3">
+      <c r="E215" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C215" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D215" s="5">
+      <c r="C216" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" s="5">
         <v>522610</v>
       </c>
-      <c r="E215" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="216" ht="18.5" customHeight="1">
-      <c r="A216" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B216" t="s" s="3">
+      <c r="E216" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C216" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D216" s="5">
+      <c r="C217" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" s="5">
         <v>522620</v>
       </c>
-      <c r="E216" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="217" ht="18.5" customHeight="1">
-      <c r="A217" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B217" t="s" s="3">
+      <c r="E217" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C217" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D217" s="5">
+      <c r="C218" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" s="5">
         <v>522630</v>
       </c>
-      <c r="E217" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="218" ht="18.5" customHeight="1">
-      <c r="A218" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B218" t="s" s="3">
+      <c r="E218" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C218" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D218" s="5">
+      <c r="C219" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D219" s="5">
         <v>522640</v>
       </c>
-      <c r="E218" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="219" ht="18.5" customHeight="1">
-      <c r="A219" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B219" t="s" s="3">
+      <c r="E219" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C219" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D219" s="5">
+      <c r="C220" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" s="5">
         <v>522650</v>
       </c>
-      <c r="E219" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="220" ht="18.5" customHeight="1">
-      <c r="A220" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B220" t="s" s="3">
+      <c r="E220" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C220" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D220" s="5">
+      <c r="C221" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" s="5">
         <v>522660</v>
       </c>
-      <c r="E220" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="221" ht="18.5" customHeight="1">
-      <c r="A221" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B221" t="s" s="3">
+      <c r="E221" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C221" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D221" s="5">
+      <c r="C222" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" s="5">
         <v>522700</v>
       </c>
-      <c r="E221" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="222" ht="18.5" customHeight="1">
-      <c r="A222" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B222" t="s" s="3">
+      <c r="E222" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C222" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D222" s="5">
+      <c r="C223" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" s="5">
         <v>522710</v>
       </c>
-      <c r="E222" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="223" ht="18.5" customHeight="1">
-      <c r="A223" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B223" t="s" s="3">
+      <c r="E223" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C223" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D223" s="5">
+      <c r="C224" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D224" s="5">
         <v>522720</v>
       </c>
-      <c r="E223" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="224" ht="18.5" customHeight="1">
-      <c r="A224" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B224" t="s" s="3">
+      <c r="E224" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C224" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D224" s="5">
+      <c r="C225" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225" s="5">
         <v>522730</v>
       </c>
-      <c r="E224" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="225" ht="18.5" customHeight="1">
-      <c r="A225" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B225" t="s" s="3">
+      <c r="E225" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C225" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D225" s="5">
+      <c r="C226" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D226" s="5">
         <v>522800</v>
       </c>
-      <c r="E225" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="226" ht="18.5" customHeight="1">
-      <c r="A226" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B226" t="s" s="3">
+      <c r="E226" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C226" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D226" s="5">
+      <c r="C227" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227" s="5">
         <v>522810</v>
       </c>
-      <c r="E226" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="227" ht="18.5" customHeight="1">
-      <c r="A227" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B227" t="s" s="3">
+      <c r="E227" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C227" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D227" s="5">
+      <c r="C228" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228" s="5">
         <v>522820</v>
       </c>
-      <c r="E227" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="228" ht="18.5" customHeight="1">
-      <c r="A228" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B228" t="s" s="3">
+      <c r="E228" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C228" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D228" s="5">
+      <c r="C229" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" s="5">
         <v>522830</v>
       </c>
-      <c r="E228" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="229" ht="18.5" customHeight="1">
-      <c r="A229" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B229" t="s" s="3">
+      <c r="E229" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C229" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D229" s="5">
+      <c r="C230" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" s="5">
         <v>522840</v>
       </c>
-      <c r="E229" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="230" ht="18.5" customHeight="1">
-      <c r="A230" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B230" t="s" s="3">
+      <c r="E230" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C230" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D230" s="5">
+      <c r="C231" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231" s="5">
         <v>522850</v>
       </c>
-      <c r="E230" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="231" ht="18.5" customHeight="1">
-      <c r="A231" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B231" t="s" s="3">
+      <c r="E231" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C231" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D231" s="5">
+      <c r="C232" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D232" s="5">
         <v>522860</v>
       </c>
-      <c r="E231" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="232" ht="18.5" customHeight="1">
-      <c r="A232" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B232" t="s" s="3">
+      <c r="E232" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C232" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D232" s="5">
+      <c r="C233" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233" s="5">
         <v>522870</v>
       </c>
-      <c r="E232" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="233" ht="18.5" customHeight="1">
-      <c r="A233" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B233" t="s" s="3">
+      <c r="E233" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C233" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D233" s="5">
+      <c r="C234" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" s="5">
         <v>522880</v>
       </c>
-      <c r="E233" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="234" ht="18.5" customHeight="1">
-      <c r="A234" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B234" t="s" s="3">
+      <c r="E234" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C234" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D234" s="5">
+      <c r="C235" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" s="5">
         <v>522900</v>
       </c>
-      <c r="E234" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="235" ht="18.5" customHeight="1">
-      <c r="A235" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B235" t="s" s="3">
+      <c r="E235" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C235" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D235" s="5">
+      <c r="C236" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D236" s="5">
         <v>522910</v>
       </c>
-      <c r="E235" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="236" ht="18.5" customHeight="1">
-      <c r="A236" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B236" t="s" s="3">
+      <c r="E236" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C236" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D236" s="5">
+      <c r="C237" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" s="5">
         <v>522920</v>
       </c>
-      <c r="E236" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="237" ht="18.5" customHeight="1">
-      <c r="A237" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B237" t="s" s="3">
+      <c r="E237" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C237" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D237" s="5">
+      <c r="C238" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" s="5">
         <v>522930</v>
       </c>
-      <c r="E237" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="238" ht="18.5" customHeight="1">
-      <c r="A238" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B238" t="s" s="3">
+      <c r="E238" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C238" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D238" s="5">
+      <c r="C239" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" s="5">
         <v>523000</v>
       </c>
-      <c r="E238" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="239" ht="18.5" customHeight="1">
-      <c r="A239" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B239" t="s" s="3">
+      <c r="E239" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C239" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D239" s="5">
+      <c r="C240" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240" s="5">
         <v>523100</v>
       </c>
-      <c r="E239" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="240" ht="18.5" customHeight="1">
-      <c r="A240" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B240" t="s" s="3">
+      <c r="E240" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C240" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D240" s="5">
+      <c r="C241" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241" s="5">
         <v>523200</v>
       </c>
-      <c r="E240" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="241" ht="18.5" customHeight="1">
-      <c r="A241" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B241" t="s" s="3">
+      <c r="E241" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C241" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D241" s="5">
+      <c r="C242" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D242" s="5">
         <v>523300</v>
       </c>
-      <c r="E241" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="242" ht="18.5" customHeight="1">
-      <c r="A242" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B242" t="s" s="3">
+      <c r="E242" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C242" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D242" s="5">
+      <c r="C243" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" s="5">
         <v>523400</v>
       </c>
-      <c r="E242" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="243" ht="34.5" customHeight="1">
-      <c r="A243" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B243" t="s" s="3">
+      <c r="E243" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C243" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D243" s="5">
+      <c r="C244" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244" s="5">
         <v>523500</v>
       </c>
-      <c r="E243" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="244" ht="18.5" customHeight="1">
-      <c r="A244" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B244" t="s" s="3">
+      <c r="E244" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C244" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D244" s="5">
+      <c r="C245" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D245" s="5">
         <v>523600</v>
       </c>
-      <c r="E244" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="245" ht="18.5" customHeight="1">
-      <c r="A245" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B245" t="s" s="3">
+      <c r="E245" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C245" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D245" s="5">
+      <c r="C246" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D246" s="5">
         <v>523700</v>
       </c>
-      <c r="E245" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="246" ht="18.5" customHeight="1">
-      <c r="A246" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B246" t="s" s="3">
+      <c r="E246" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C246" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D246" s="5">
+      <c r="C247" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247" s="5">
         <v>530000</v>
       </c>
-      <c r="E246" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="247" ht="18.5" customHeight="1">
-      <c r="A247" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B247" t="s" s="3">
+      <c r="E247" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C247" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D247" s="5">
+      <c r="C248" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D248" s="5">
         <v>531000</v>
       </c>
-      <c r="E247" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="248" ht="18.5" customHeight="1">
-      <c r="A248" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B248" t="s" s="3">
+      <c r="E248" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C248" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D248" s="5">
+      <c r="C249" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D249" s="5">
         <v>531100</v>
       </c>
-      <c r="E248" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="249" ht="18.5" customHeight="1">
-      <c r="A249" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B249" t="s" s="3">
+      <c r="E249" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C249" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D249" s="5">
+      <c r="C250" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D250" s="5">
         <v>531200</v>
       </c>
-      <c r="E249" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="250" ht="18.5" customHeight="1">
-      <c r="A250" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B250" t="s" s="3">
+      <c r="E250" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C250" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D250" s="5">
+      <c r="C251" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D251" s="5">
         <v>531300</v>
       </c>
-      <c r="E250" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="251" ht="18.5" customHeight="1">
-      <c r="A251" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B251" t="s" s="3">
+      <c r="E251" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C251" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D251" s="5">
+      <c r="C252" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D252" s="5">
         <v>531400</v>
       </c>
-      <c r="E251" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="252" ht="18.5" customHeight="1">
-      <c r="A252" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B252" t="s" s="3">
+      <c r="E252" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C252" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D252" s="5">
+      <c r="C253" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D253" s="5">
         <v>531500</v>
       </c>
-      <c r="E252" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="253" ht="18.5" customHeight="1">
-      <c r="A253" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B253" t="s" s="3">
+      <c r="E253" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C253" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D253" s="5">
+      <c r="C254" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" s="5">
         <v>531600</v>
       </c>
-      <c r="E253" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="254" ht="18.5" customHeight="1">
-      <c r="A254" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B254" t="s" s="3">
+      <c r="E254" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C254" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D254" s="5">
+      <c r="C255" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5">
         <v>532101</v>
       </c>
-      <c r="E254" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="255" ht="18.5" customHeight="1">
-      <c r="A255" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B255" t="s" s="3">
+      <c r="E255" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C255" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D255" s="5">
+      <c r="C256" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D256" s="5">
         <v>532102</v>
       </c>
-      <c r="E255" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="256" ht="18.5" customHeight="1">
-      <c r="A256" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B256" t="s" s="3">
+      <c r="E256" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C256" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D256" s="5">
+      <c r="C257" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D257" s="5">
         <v>532103</v>
       </c>
-      <c r="E256" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="257" ht="18.5" customHeight="1">
-      <c r="A257" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B257" t="s" s="3">
+      <c r="E257" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C257" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D257" s="5">
+      <c r="C258" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" s="5">
         <v>532104</v>
       </c>
-      <c r="E257" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="258" ht="18.5" customHeight="1">
-      <c r="A258" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B258" t="s" s="3">
+      <c r="E258" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C258" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D258" s="5">
+      <c r="C259" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D259" s="5">
         <v>532105</v>
       </c>
-      <c r="E258" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="259" ht="18.5" customHeight="1">
-      <c r="A259" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B259" t="s" s="3">
+      <c r="E259" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C259" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D259" s="5">
+      <c r="C260" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" s="5">
         <v>532106</v>
       </c>
-      <c r="E259" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="260" ht="18.5" customHeight="1">
-      <c r="A260" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B260" t="s" s="3">
+      <c r="E260" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C260" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D260" s="5">
+      <c r="C261" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D261" s="5">
         <v>532107</v>
       </c>
-      <c r="E260" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="261" ht="18.5" customHeight="1">
-      <c r="A261" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B261" t="s" s="3">
+      <c r="E261" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C261" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D261" s="5">
+      <c r="C262" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D262" s="5">
         <v>533101</v>
       </c>
-      <c r="E261" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="262" ht="18.5" customHeight="1">
-      <c r="A262" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B262" t="s" s="3">
+      <c r="E262" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C262" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D262" s="5">
+      <c r="C263" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D263" s="5">
         <v>533102</v>
       </c>
-      <c r="E262" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="263" ht="18.5" customHeight="1">
-      <c r="A263" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B263" t="s" s="3">
+      <c r="E263" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C263" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D263" s="5">
+      <c r="C264" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D264" s="5">
         <v>533103</v>
       </c>
-      <c r="E263" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="264" ht="18.5" customHeight="1">
-      <c r="A264" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B264" t="s" s="3">
+      <c r="E264" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C264" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D264" s="5">
+      <c r="C265" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D265" s="5">
         <v>533104</v>
       </c>
-      <c r="E264" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="265" ht="18.5" customHeight="1">
-      <c r="A265" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B265" t="s" s="3">
+      <c r="E265" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C265" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D265" s="5">
+      <c r="C266" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" s="5">
         <v>533105</v>
       </c>
-      <c r="E265" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="266" ht="18.5" customHeight="1">
-      <c r="A266" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B266" t="s" s="3">
+      <c r="E266" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C266" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D266" s="5">
+      <c r="C267" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D267" s="5">
         <v>533106</v>
       </c>
-      <c r="E266" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="267" ht="18.5" customHeight="1">
-      <c r="A267" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B267" t="s" s="3">
+      <c r="E267" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C267" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D267" s="5">
+      <c r="C268" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D268" s="5">
         <v>533200</v>
       </c>
-      <c r="E267" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="268" ht="18.5" customHeight="1">
-      <c r="A268" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B268" t="s" s="3">
+      <c r="E268" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C268" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D268" s="5">
+      <c r="C269" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D269" s="5">
         <v>533201</v>
       </c>
-      <c r="E268" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="269" ht="18.5" customHeight="1">
-      <c r="A269" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B269" t="s" s="3">
+      <c r="E269" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C269" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D269" s="5">
+      <c r="C270" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D270" s="5">
         <v>533202</v>
       </c>
-      <c r="E269" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="270" ht="18.5" customHeight="1">
-      <c r="A270" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B270" t="s" s="3">
+      <c r="E270" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C270" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D270" s="5">
+      <c r="C271" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D271" s="5">
         <v>533203</v>
       </c>
-      <c r="E270" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="271" ht="18.5" customHeight="1">
-      <c r="A271" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B271" t="s" s="3">
+      <c r="E271" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C271" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D271" s="5">
+      <c r="C272" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D272" s="5">
         <v>533204</v>
       </c>
-      <c r="E271" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="272" ht="18.5" customHeight="1">
-      <c r="A272" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B272" t="s" s="3">
+      <c r="E272" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C272" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D272" s="5">
+      <c r="C273" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D273" s="5">
         <v>533300</v>
       </c>
-      <c r="E272" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="273" ht="18.5" customHeight="1">
-      <c r="A273" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B273" t="s" s="3">
+      <c r="E273" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C273" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D273" s="5">
+      <c r="C274" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D274" s="5">
         <v>533301</v>
       </c>
-      <c r="E273" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="274" ht="18.5" customHeight="1">
-      <c r="A274" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B274" t="s" s="3">
+      <c r="E274" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C274" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D274" s="5">
+      <c r="C275" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D275" s="5">
         <v>533302</v>
       </c>
-      <c r="E274" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="275" ht="18.5" customHeight="1">
-      <c r="A275" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B275" t="s" s="3">
+      <c r="E275" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C275" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D275" s="5">
+      <c r="C276" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D276" s="5">
         <v>533303</v>
       </c>
-      <c r="E275" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="276" ht="18.5" customHeight="1">
-      <c r="A276" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B276" t="s" s="3">
+      <c r="E276" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C276" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D276" s="5">
+      <c r="C277" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D277" s="5">
         <v>533304</v>
       </c>
-      <c r="E276" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="277" ht="18.5" customHeight="1">
-      <c r="A277" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B277" t="s" s="3">
+      <c r="E277" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C277" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D277" s="5">
+      <c r="C278" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D278" s="5">
         <v>533400</v>
       </c>
-      <c r="E277" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="278" ht="18.5" customHeight="1">
-      <c r="A278" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B278" t="s" s="3">
+      <c r="E278" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C278" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D278" s="5">
+      <c r="C279" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D279" s="5">
         <v>533401</v>
       </c>
-      <c r="E278" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="279" ht="18.5" customHeight="1">
-      <c r="A279" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B279" t="s" s="3">
+      <c r="E279" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C279" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D279" s="5">
+      <c r="C280" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D280" s="5">
         <v>533402</v>
       </c>
-      <c r="E279" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="280" ht="36.4" customHeight="1">
-      <c r="A280" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B280" t="s" s="3">
+      <c r="E280" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C280" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D280" s="5">
+      <c r="C281" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D281" s="5">
         <v>533403</v>
       </c>
-      <c r="E280" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="281" ht="18.5" customHeight="1">
-      <c r="A281" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B281" t="s" s="3">
+      <c r="E281" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C281" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D281" s="5">
+      <c r="C282" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D282" s="5">
         <v>533404</v>
       </c>
-      <c r="E281" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="282" ht="18.5" customHeight="1">
-      <c r="A282" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B282" t="s" s="3">
+      <c r="E282" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C282" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D282" s="5">
+      <c r="C283" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D283" s="5">
         <v>533405</v>
       </c>
-      <c r="E282" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="283" ht="18.5" customHeight="1">
-      <c r="A283" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B283" t="s" s="3">
+      <c r="E283" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C283" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D283" s="5">
+      <c r="C284" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D284" s="5">
         <v>533406</v>
       </c>
-      <c r="E283" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="284" ht="18.5" customHeight="1">
-      <c r="A284" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B284" t="s" s="3">
+      <c r="E284" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C284" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D284" s="5">
+      <c r="C285" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D285" s="5">
         <v>533407</v>
       </c>
-      <c r="E284" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="285" ht="18.5" customHeight="1">
-      <c r="A285" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B285" t="s" s="3">
+      <c r="E285" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C285" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D285" s="5">
+      <c r="C286" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D286" s="5">
         <v>533408</v>
       </c>
-      <c r="E285" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="286" ht="18.5" customHeight="1">
-      <c r="A286" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B286" t="s" s="3">
+      <c r="E286" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C286" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D286" s="5">
+      <c r="C287" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D287" s="5">
         <v>533500</v>
       </c>
-      <c r="E286" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="287" ht="18.5" customHeight="1">
-      <c r="A287" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B287" t="s" s="3">
+      <c r="E287" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C287" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D287" s="5">
+      <c r="C288" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D288" s="5">
         <v>533501</v>
       </c>
-      <c r="E287" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="288" ht="18.5" customHeight="1">
-      <c r="A288" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B288" t="s" s="3">
+      <c r="E288" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C288" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D288" s="5">
+      <c r="C289" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D289" s="5">
         <v>533502</v>
       </c>
-      <c r="E288" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="289" ht="18.5" customHeight="1">
-      <c r="A289" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B289" t="s" s="3">
+      <c r="E289" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C289" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D289" s="5">
+      <c r="C290" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D290" s="5">
         <v>533503</v>
       </c>
-      <c r="E289" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="290" ht="18.5" customHeight="1">
-      <c r="A290" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B290" t="s" s="3">
+      <c r="E290" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C290" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D290" s="5">
+      <c r="C291" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D291" s="5">
         <v>533600</v>
       </c>
-      <c r="E290" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="291" ht="18.5" customHeight="1">
-      <c r="A291" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B291" t="s" s="3">
+      <c r="E291" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C291" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D291" s="5">
+      <c r="C292" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D292" s="5">
         <v>533601</v>
       </c>
-      <c r="E291" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="292" ht="18.5" customHeight="1">
-      <c r="A292" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B292" t="s" s="3">
+      <c r="E292" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C292" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D292" s="5">
+      <c r="C293" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D293" s="5">
         <v>533602</v>
       </c>
-      <c r="E292" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="293" ht="18.5" customHeight="1">
-      <c r="A293" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B293" t="s" s="3">
+      <c r="E293" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C293" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D293" s="5">
+      <c r="C294" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D294" s="5">
         <v>533603</v>
       </c>
-      <c r="E293" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="294" ht="18.5" customHeight="1">
-      <c r="A294" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B294" t="s" s="3">
+      <c r="E294" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C294" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D294" s="5">
+      <c r="C295" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D295" s="5">
         <v>533604</v>
       </c>
-      <c r="E294" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="295" ht="18.5" customHeight="1">
-      <c r="A295" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B295" t="s" s="3">
+      <c r="E295" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C295" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D295" s="5">
+      <c r="C296" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D296" s="5">
         <v>533700</v>
       </c>
-      <c r="E295" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="296" ht="18.5" customHeight="1">
-      <c r="A296" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B296" t="s" s="3">
+      <c r="E296" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C296" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D296" s="5">
+      <c r="C297" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D297" s="5">
         <v>533701</v>
       </c>
-      <c r="E296" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="297" ht="18.5" customHeight="1">
-      <c r="A297" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B297" t="s" s="3">
+      <c r="E297" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C297" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D297" s="5">
+      <c r="C298" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D298" s="5">
         <v>533702</v>
       </c>
-      <c r="E297" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="298" ht="18.5" customHeight="1">
-      <c r="A298" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B298" t="s" s="3">
+      <c r="E298" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C298" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D298" s="5">
+      <c r="C299" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D299" s="5">
         <v>533703</v>
       </c>
-      <c r="E298" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="299" ht="18.5" customHeight="1">
-      <c r="A299" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B299" t="s" s="3">
+      <c r="E299" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C299" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D299" s="5">
+      <c r="C300" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D300" s="5">
         <v>533704</v>
       </c>
-      <c r="E299" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="300" ht="18.5" customHeight="1">
-      <c r="A300" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B300" t="s" s="3">
+      <c r="E300" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C300" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D300" s="5">
+      <c r="C301" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D301" s="5">
         <v>533705</v>
       </c>
-      <c r="E300" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="301" ht="18.5" customHeight="1">
-      <c r="A301" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B301" t="s" s="3">
+      <c r="E301" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C301" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D301" s="5">
+      <c r="C302" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D302" s="5">
         <v>533706</v>
       </c>
-      <c r="E301" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="302" ht="18.5" customHeight="1">
-      <c r="A302" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B302" t="s" s="3">
+      <c r="E302" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C302" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D302" s="5">
+      <c r="C303" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D303" s="5">
         <v>533707</v>
       </c>
-      <c r="E302" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="303" ht="18.5" customHeight="1">
-      <c r="A303" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B303" t="s" s="3">
+      <c r="E303" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C303" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D303" s="5">
+      <c r="C304" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D304" s="5">
         <v>533708</v>
       </c>
-      <c r="E303" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="304" ht="18.5" customHeight="1">
-      <c r="A304" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B304" t="s" s="3">
+      <c r="E304" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C304" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D304" s="5">
+      <c r="C305" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D305" s="5">
         <v>533709</v>
       </c>
-      <c r="E304" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="305" ht="18.5" customHeight="1">
-      <c r="A305" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B305" t="s" s="3">
+      <c r="E305" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C305" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D305" s="5">
+      <c r="C306" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D306" s="5">
         <v>533710</v>
       </c>
-      <c r="E305" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="306" ht="18.5" customHeight="1">
-      <c r="A306" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B306" t="s" s="3">
+      <c r="E306" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C306" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D306" s="5">
+      <c r="C307" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D307" s="5">
         <v>533711</v>
       </c>
-      <c r="E306" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="307" ht="18.5" customHeight="1">
-      <c r="A307" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B307" t="s" s="3">
+      <c r="E307" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C307" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D307" s="5">
+      <c r="C308" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D308" s="5">
         <v>533712</v>
       </c>
-      <c r="E307" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="308" ht="18.5" customHeight="1">
-      <c r="A308" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B308" t="s" s="3">
+      <c r="E308" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C308" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D308" s="5">
+      <c r="C309" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D309" s="5">
         <v>533713</v>
       </c>
-      <c r="E308" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="309" ht="18.5" customHeight="1">
-      <c r="A309" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B309" t="s" s="3">
+      <c r="E309" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C309" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D309" s="5">
+      <c r="C310" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D310" s="5">
         <v>533714</v>
       </c>
-      <c r="E309" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="310" ht="18.5" customHeight="1">
-      <c r="A310" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B310" t="s" s="3">
+      <c r="E310" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C310" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D310" s="5">
+      <c r="C311" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D311" s="5">
         <v>533715</v>
       </c>
-      <c r="E310" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="311" ht="18.5" customHeight="1">
-      <c r="A311" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B311" t="s" s="3">
+      <c r="E311" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C311" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D311" s="5">
+      <c r="C312" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D312" s="5">
         <v>533716</v>
       </c>
-      <c r="E311" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="312" ht="18.5" customHeight="1">
-      <c r="A312" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B312" t="s" s="3">
+      <c r="E312" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C312" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D312" s="5">
+      <c r="C313" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D313" s="5">
         <v>533717</v>
       </c>
-      <c r="E312" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="313" ht="18.5" customHeight="1">
-      <c r="A313" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B313" t="s" s="3">
+      <c r="E313" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C313" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D313" s="5">
+      <c r="C314" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D314" s="5">
         <v>533718</v>
       </c>
-      <c r="E313" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="314" ht="18.5" customHeight="1">
-      <c r="A314" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B314" t="s" s="3">
+      <c r="E314" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C314" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D314" s="5">
+      <c r="C315" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D315" s="5">
         <v>533719</v>
       </c>
-      <c r="E314" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="315" ht="18.5" customHeight="1">
-      <c r="A315" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B315" t="s" s="3">
+      <c r="E315" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C315" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D315" s="5">
+      <c r="C316" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D316" s="5">
         <v>533720</v>
       </c>
-      <c r="E315" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="316" ht="18.5" customHeight="1">
-      <c r="A316" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B316" t="s" s="3">
+      <c r="E316" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C316" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D316" s="5">
+      <c r="C317" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D317" s="5">
         <v>533721</v>
       </c>
-      <c r="E316" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="317" ht="18.5" customHeight="1">
-      <c r="A317" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B317" t="s" s="3">
+      <c r="E317" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C317" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D317" s="5">
+      <c r="C318" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D318" s="5">
         <v>533722</v>
       </c>
-      <c r="E317" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="318" ht="18.5" customHeight="1">
-      <c r="A318" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B318" t="s" s="3">
+      <c r="E318" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C318" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D318" s="5">
+      <c r="C319" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D319" s="5">
         <v>533723</v>
       </c>
-      <c r="E318" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="319" ht="18.5" customHeight="1">
-      <c r="A319" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B319" t="s" s="3">
+      <c r="E319" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C319" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D319" s="5">
+      <c r="C320" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D320" s="5">
         <v>533724</v>
       </c>
-      <c r="E319" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="320" ht="18.5" customHeight="1">
-      <c r="A320" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B320" t="s" s="3">
+      <c r="E320" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C320" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D320" s="5">
+      <c r="C321" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D321" s="5">
         <v>533725</v>
       </c>
-      <c r="E320" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="321" ht="18.5" customHeight="1">
-      <c r="A321" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B321" t="s" s="3">
+      <c r="E321" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C321" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D321" s="5">
+      <c r="C322" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D322" s="5">
         <v>533726</v>
       </c>
-      <c r="E321" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="322" ht="18.5" customHeight="1">
-      <c r="A322" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B322" t="s" s="3">
+      <c r="E322" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C322" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D322" s="5">
+      <c r="C323" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D323" s="5">
         <v>533727</v>
       </c>
-      <c r="E322" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="323" ht="18.5" customHeight="1">
-      <c r="A323" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B323" t="s" s="3">
+      <c r="E323" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C323" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D323" s="5">
+      <c r="C324" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D324" s="5">
         <v>533728</v>
       </c>
-      <c r="E323" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="324" ht="18.5" customHeight="1">
-      <c r="A324" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B324" t="s" s="3">
+      <c r="E324" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C324" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D324" s="5">
+      <c r="C325" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D325" s="5">
         <v>533729</v>
       </c>
-      <c r="E324" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="325" ht="18.5" customHeight="1">
-      <c r="A325" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B325" t="s" s="3">
+      <c r="E325" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C325" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D325" s="5">
+      <c r="C326" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D326" s="5">
         <v>533730</v>
       </c>
-      <c r="E325" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="326" ht="18.5" customHeight="1">
-      <c r="A326" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B326" t="s" s="3">
+      <c r="E326" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C326" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D326" s="5">
+      <c r="C327" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D327" s="5">
         <v>533731</v>
       </c>
-      <c r="E326" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="327" ht="18.5" customHeight="1">
-      <c r="A327" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B327" t="s" s="3">
+      <c r="E327" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C327" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D327" s="5">
+      <c r="C328" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D328" s="5">
         <v>533732</v>
       </c>
-      <c r="E327" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="328" ht="18.5" customHeight="1">
-      <c r="A328" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B328" t="s" s="3">
+      <c r="E328" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C328" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D328" s="5">
+      <c r="C329" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D329" s="5">
         <v>533733</v>
       </c>
-      <c r="E328" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="329" ht="18.5" customHeight="1">
-      <c r="A329" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B329" t="s" s="3">
+      <c r="E329" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C329" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D329" s="5">
+      <c r="C330" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D330" s="5">
         <v>533734</v>
       </c>
-      <c r="E329" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="330" ht="18.5" customHeight="1">
-      <c r="A330" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B330" t="s" s="3">
+      <c r="E330" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C330" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D330" s="5">
+      <c r="C331" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D331" s="5">
         <v>533735</v>
       </c>
-      <c r="E330" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="331" ht="18.5" customHeight="1">
-      <c r="A331" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B331" t="s" s="3">
+      <c r="E331" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C331" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D331" s="5">
+      <c r="C332" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D332" s="5">
         <v>533736</v>
       </c>
-      <c r="E331" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="332" ht="18.5" customHeight="1">
-      <c r="A332" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B332" t="s" s="3">
+      <c r="E332" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C332" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D332" s="5">
+      <c r="C333" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D333" s="5">
         <v>533737</v>
       </c>
-      <c r="E332" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="333" ht="18.5" customHeight="1">
-      <c r="A333" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B333" t="s" s="3">
+      <c r="E333" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C333" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D333" s="5">
+      <c r="C334" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D334" s="5">
         <v>610000</v>
       </c>
-      <c r="E333" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="334" ht="18.5" customHeight="1">
-      <c r="A334" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B334" t="s" s="3">
+      <c r="E334" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C334" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D334" s="5">
+      <c r="C335" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D335" s="5">
         <v>611001</v>
       </c>
-      <c r="E334" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="335" ht="18.5" customHeight="1">
-      <c r="A335" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B335" t="s" s="3">
+      <c r="E335" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C335" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D335" s="5">
+      <c r="C336" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D336" s="5">
         <v>611002</v>
       </c>
-      <c r="E335" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="336" ht="18.5" customHeight="1">
-      <c r="A336" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B336" t="s" s="3">
+      <c r="E336" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C336" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D336" s="5">
+      <c r="C337" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D337" s="5">
         <v>611003</v>
       </c>
-      <c r="E336" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="337" ht="18.5" customHeight="1">
-      <c r="A337" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B337" t="s" s="3">
+      <c r="E337" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C337" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D337" s="5">
+      <c r="C338" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D338" s="5">
         <v>611004</v>
       </c>
-      <c r="E337" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="338" ht="18.5" customHeight="1">
-      <c r="A338" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B338" t="s" s="3">
+      <c r="E338" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C338" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D338" s="5">
+      <c r="C339" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D339" s="5">
         <v>611005</v>
       </c>
-      <c r="E338" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="339" ht="18.5" customHeight="1">
-      <c r="A339" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B339" t="s" s="3">
+      <c r="E339" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C339" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D339" s="5">
+      <c r="C340" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D340" s="5">
         <v>611006</v>
       </c>
-      <c r="E339" t="s" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="340" ht="18.5" customHeight="1">
-      <c r="A340" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="B340" t="s" s="3">
+      <c r="E340" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C340" t="b" s="4">
-        <v>1</v>
-      </c>
-      <c r="D340" s="5">
+      <c r="C341" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D341" s="7">
         <v>611007</v>
       </c>
-      <c r="E340" t="s" s="3">
+      <c r="E341" s="3" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Data_file/Chart_Of_Account.xlsx
+++ b/Data_file/Chart_Of_Account.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="335">
   <si>
     <t>currency_id</t>
   </si>
@@ -1018,6 +1018,12 @@
   </si>
   <si>
     <t>ค่าใช้จ่ายในการซ่อมบำรุงเครื่องจักร</t>
+  </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Receivable</t>
   </si>
 </sst>
 </file>
@@ -2262,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2442,7 +2448,7 @@
         <v>11400</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2476,7 +2482,7 @@
         <v>114200</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2510,7 +2516,7 @@
         <v>114300</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3938,7 +3944,7 @@
         <v>211000</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3972,7 +3978,7 @@
         <v>211200</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3989,7 +3995,7 @@
         <v>211300</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">

--- a/Data_file/Chart_Of_Account.xlsx
+++ b/Data_file/Chart_Of_Account.xlsx
@@ -516,9 +516,6 @@
     <t xml:space="preserve">ซื้อหีบห่อ                                                                                                                                                                                              </t>
   </si>
   <si>
-    <t xml:space="preserve">ซื้ออื่นๆ                                                                                                                                                                                               </t>
-  </si>
-  <si>
     <t xml:space="preserve">ค่าใช้จ่ายในการซื้อสินค้า                                                                                                                                                                               </t>
   </si>
   <si>
@@ -1024,6 +1021,9 @@
   </si>
   <si>
     <t>Receivable</t>
+  </si>
+  <si>
+    <t>ซื้อวัสดุสิ้นเปลืองการผลิต </t>
   </si>
 </sst>
 </file>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2448,7 @@
         <v>11400</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
         <v>114200</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>114300</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3944,7 +3944,7 @@
         <v>211000</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3978,7 +3978,7 @@
         <v>211200</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3995,7 +3995,7 @@
         <v>211300</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="C161" s="4" t="b">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162" s="4" t="b">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163" s="4" t="b">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C164" s="4" t="b">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" s="4" t="b">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" s="4" t="b">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" s="4" t="b">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" s="4" t="b">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169" s="4" t="b">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" s="4" t="b">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171" s="4" t="b">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" s="4" t="b">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>5</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" s="4" t="b">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" s="4" t="b">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>5</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175" s="4" t="b">
         <v>1</v>
@@ -5261,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176" s="4" t="b">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177" s="4" t="b">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178" s="4" t="b">
         <v>1</v>
@@ -5312,7 +5312,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179" s="4" t="b">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="4" t="b">
         <v>1</v>
@@ -5346,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" s="4" t="b">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" s="4" t="b">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183" s="4" t="b">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>5</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184" s="4" t="b">
         <v>1</v>
@@ -5414,7 +5414,7 @@
         <v>5</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185" s="4" t="b">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>5</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" s="4" t="b">
         <v>1</v>
@@ -5448,7 +5448,7 @@
         <v>5</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187" s="4" t="b">
         <v>1</v>
@@ -5465,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188" s="4" t="b">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" s="4" t="b">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" s="4" t="b">
         <v>1</v>
@@ -5516,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191" s="4" t="b">
         <v>1</v>
@@ -5533,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" s="4" t="b">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" s="4" t="b">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="4" t="b">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" s="4" t="b">
         <v>1</v>
@@ -5601,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" s="4" t="b">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" s="4" t="b">
         <v>1</v>
@@ -5635,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" s="4" t="b">
         <v>1</v>
@@ -5652,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199" s="4" t="b">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200" s="4" t="b">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" s="4" t="b">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" s="4" t="b">
         <v>1</v>
@@ -5720,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C203" s="4" t="b">
         <v>1</v>
@@ -5737,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C204" s="4" t="b">
         <v>1</v>
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" s="4" t="b">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" s="4" t="b">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C207" s="4" t="b">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         <v>5</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" s="4" t="b">
         <v>1</v>
@@ -5822,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" s="4" t="b">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210" s="4" t="b">
         <v>1</v>
@@ -5856,7 +5856,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="4" t="b">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="4" t="b">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>5</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C213" s="4" t="b">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C214" s="4" t="b">
         <v>1</v>
@@ -5924,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215" s="4" t="b">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216" s="4" t="b">
         <v>1</v>
@@ -5958,7 +5958,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217" s="4" t="b">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218" s="4" t="b">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219" s="4" t="b">
         <v>1</v>
@@ -6009,7 +6009,7 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220" s="4" t="b">
         <v>1</v>
@@ -6026,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C221" s="4" t="b">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C222" s="4" t="b">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C223" s="4" t="b">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C224" s="4" t="b">
         <v>1</v>
@@ -6094,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C225" s="4" t="b">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="4" t="b">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>5</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C227" s="4" t="b">
         <v>1</v>
@@ -6145,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="4" t="b">
         <v>1</v>
@@ -6162,7 +6162,7 @@
         <v>5</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="4" t="b">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="4" t="b">
         <v>1</v>
@@ -6196,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="4" t="b">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="4" t="b">
         <v>1</v>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="4" t="b">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="4" t="b">
         <v>1</v>
@@ -6264,7 +6264,7 @@
         <v>5</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C235" s="4" t="b">
         <v>1</v>
@@ -6281,7 +6281,7 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C236" s="4" t="b">
         <v>1</v>
@@ -6298,7 +6298,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="4" t="b">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>5</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C238" s="4" t="b">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>5</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C239" s="4" t="b">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C240" s="4" t="b">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>5</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C241" s="4" t="b">
         <v>1</v>
@@ -6383,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C242" s="4" t="b">
         <v>1</v>
@@ -6400,7 +6400,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="4" t="b">
         <v>1</v>
@@ -6417,7 +6417,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="4" t="b">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>5</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C245" s="4" t="b">
         <v>1</v>
@@ -6451,7 +6451,7 @@
         <v>5</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C246" s="4" t="b">
         <v>1</v>
@@ -6468,7 +6468,7 @@
         <v>5</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C247" s="4" t="b">
         <v>1</v>
@@ -6485,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C248" s="4" t="b">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C249" s="4" t="b">
         <v>1</v>
@@ -6519,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C250" s="4" t="b">
         <v>1</v>
@@ -6536,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C251" s="4" t="b">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C252" s="4" t="b">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="4" t="b">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="4" t="b">
         <v>1</v>
@@ -6604,7 +6604,7 @@
         <v>5</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C255" s="4" t="b">
         <v>1</v>
@@ -6621,7 +6621,7 @@
         <v>5</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="4" t="b">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>5</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="4" t="b">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>5</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="4" t="b">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>5</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="4" t="b">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="4" t="b">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="b">
         <v>1</v>
@@ -6723,7 +6723,7 @@
         <v>5</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C262" s="4" t="b">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>5</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4" t="b">
         <v>1</v>
@@ -6757,7 +6757,7 @@
         <v>5</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4" t="b">
         <v>1</v>
@@ -6774,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4" t="b">
         <v>1</v>
@@ -6791,7 +6791,7 @@
         <v>5</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4" t="b">
         <v>1</v>
@@ -6808,7 +6808,7 @@
         <v>5</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4" t="b">
         <v>1</v>
@@ -6825,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4" t="b">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>5</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C269" s="4" t="b">
         <v>1</v>
@@ -6859,7 +6859,7 @@
         <v>5</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C270" s="4" t="b">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>5</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C271" s="4" t="b">
         <v>1</v>
@@ -6893,7 +6893,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272" s="4" t="b">
         <v>1</v>
@@ -6910,7 +6910,7 @@
         <v>5</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C273" s="4" t="b">
         <v>1</v>
@@ -6927,7 +6927,7 @@
         <v>5</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C274" s="4" t="b">
         <v>1</v>
@@ -6944,7 +6944,7 @@
         <v>5</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C275" s="4" t="b">
         <v>1</v>
@@ -6961,7 +6961,7 @@
         <v>5</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="4" t="b">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>5</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="4" t="b">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>5</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="4" t="b">
         <v>1</v>
@@ -7012,7 +7012,7 @@
         <v>5</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="4" t="b">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>5</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="4" t="b">
         <v>1</v>
@@ -7046,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="4" t="b">
         <v>1</v>
@@ -7063,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="4" t="b">
         <v>1</v>
@@ -7080,7 +7080,7 @@
         <v>5</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="4" t="b">
         <v>1</v>
@@ -7097,7 +7097,7 @@
         <v>5</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="4" t="b">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>5</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="4" t="b">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>5</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="4" t="b">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>5</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="4" t="b">
         <v>1</v>
@@ -7165,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="4" t="b">
         <v>1</v>
@@ -7182,7 +7182,7 @@
         <v>5</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="4" t="b">
         <v>1</v>
@@ -7199,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="4" t="b">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>5</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="4" t="b">
         <v>1</v>
@@ -7233,7 +7233,7 @@
         <v>5</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="4" t="b">
         <v>1</v>
@@ -7250,7 +7250,7 @@
         <v>5</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="4" t="b">
         <v>1</v>
@@ -7267,7 +7267,7 @@
         <v>5</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C294" s="4" t="b">
         <v>1</v>
@@ -7284,7 +7284,7 @@
         <v>5</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C295" s="4" t="b">
         <v>1</v>
@@ -7301,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C296" s="4" t="b">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>5</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C297" s="4" t="b">
         <v>1</v>
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C298" s="4" t="b">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>5</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C299" s="4" t="b">
         <v>1</v>
@@ -7369,7 +7369,7 @@
         <v>5</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C300" s="4" t="b">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C301" s="4" t="b">
         <v>1</v>
@@ -7403,7 +7403,7 @@
         <v>5</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C302" s="4" t="b">
         <v>1</v>
@@ -7420,7 +7420,7 @@
         <v>5</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C303" s="4" t="b">
         <v>1</v>
@@ -7437,7 +7437,7 @@
         <v>5</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C304" s="4" t="b">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C305" s="4" t="b">
         <v>1</v>
@@ -7471,7 +7471,7 @@
         <v>5</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C306" s="4" t="b">
         <v>1</v>
@@ -7488,7 +7488,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C307" s="4" t="b">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>5</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C308" s="4" t="b">
         <v>1</v>
@@ -7522,7 +7522,7 @@
         <v>5</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C309" s="4" t="b">
         <v>1</v>
@@ -7539,7 +7539,7 @@
         <v>5</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C310" s="4" t="b">
         <v>1</v>
@@ -7556,7 +7556,7 @@
         <v>5</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C311" s="4" t="b">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>5</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C312" s="4" t="b">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>5</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C313" s="4" t="b">
         <v>1</v>
@@ -7607,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" s="4" t="b">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>5</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C315" s="4" t="b">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>5</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C316" s="4" t="b">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C317" s="4" t="b">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C318" s="4" t="b">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>5</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C319" s="4" t="b">
         <v>1</v>
@@ -7709,7 +7709,7 @@
         <v>5</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C320" s="4" t="b">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>5</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C321" s="4" t="b">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>5</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C322" s="4" t="b">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C323" s="4" t="b">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C324" s="4" t="b">
         <v>1</v>
@@ -7794,7 +7794,7 @@
         <v>5</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C325" s="4" t="b">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>5</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C326" s="4" t="b">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C327" s="4" t="b">
         <v>1</v>
@@ -7845,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C328" s="4" t="b">
         <v>1</v>
@@ -7862,7 +7862,7 @@
         <v>5</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C329" s="4" t="b">
         <v>1</v>
@@ -7879,7 +7879,7 @@
         <v>5</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C330" s="4" t="b">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>5</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C331" s="4" t="b">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>5</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C332" s="4" t="b">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C333" s="4" t="b">
         <v>1</v>
@@ -7947,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C334" s="4" t="b">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>5</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C335" s="4" t="b">
         <v>1</v>
@@ -7981,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C336" s="4" t="b">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>5</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C337" s="4" t="b">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C338" s="4" t="b">
         <v>1</v>
@@ -8032,7 +8032,7 @@
         <v>5</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C339" s="4" t="b">
         <v>1</v>
@@ -8049,7 +8049,7 @@
         <v>5</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C340" s="4" t="b">
         <v>1</v>
@@ -8066,7 +8066,7 @@
         <v>5</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C341" s="4" t="b">
         <v>1</v>
@@ -8080,7 +8080,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
